--- a/data/pca/factorExposure/factorExposure_2011-10-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +723,60 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.01624457541362634</v>
+        <v>-0.01586634063780787</v>
       </c>
       <c r="C2">
-        <v>0.03401982956435633</v>
+        <v>0.001468003080117712</v>
       </c>
       <c r="D2">
-        <v>-0.01924865959063562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03337715002606689</v>
+      </c>
+      <c r="E2">
+        <v>-0.002467163261724557</v>
+      </c>
+      <c r="F2">
+        <v>-0.03838414020874897</v>
+      </c>
+      <c r="G2">
+        <v>0.01703651686741879</v>
+      </c>
+      <c r="H2">
+        <v>0.009034873848428115</v>
+      </c>
+      <c r="I2">
+        <v>0.01027196038124234</v>
+      </c>
+      <c r="J2">
+        <v>-0.03765974300482257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +787,60 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.08393982076546447</v>
+        <v>-0.09645396555992931</v>
       </c>
       <c r="C4">
-        <v>0.05451229329745454</v>
+        <v>0.04667793113676547</v>
       </c>
       <c r="D4">
-        <v>-0.0781810105151567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06915403746979856</v>
+      </c>
+      <c r="E4">
+        <v>0.0323717681004658</v>
+      </c>
+      <c r="F4">
+        <v>-0.05066590517771594</v>
+      </c>
+      <c r="G4">
+        <v>-0.02919495341702434</v>
+      </c>
+      <c r="H4">
+        <v>-0.007611265592506759</v>
+      </c>
+      <c r="I4">
+        <v>-0.06592199004788346</v>
+      </c>
+      <c r="J4">
+        <v>0.05228660300538886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +851,380 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1147986513701219</v>
+        <v>-0.1293903417494378</v>
       </c>
       <c r="C6">
-        <v>0.04366012189254925</v>
+        <v>0.0009134617276943574</v>
       </c>
       <c r="D6">
-        <v>-0.01364377119958644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03657965532178399</v>
+      </c>
+      <c r="E6">
+        <v>-0.02629437387845884</v>
+      </c>
+      <c r="F6">
+        <v>-0.03478178500053634</v>
+      </c>
+      <c r="G6">
+        <v>-0.04924837296319463</v>
+      </c>
+      <c r="H6">
+        <v>0.1911017343464344</v>
+      </c>
+      <c r="I6">
+        <v>0.0176891225923093</v>
+      </c>
+      <c r="J6">
+        <v>0.3971699279091176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.06828112554960085</v>
+        <v>-0.07025446609478235</v>
       </c>
       <c r="C7">
-        <v>0.04746860671815003</v>
+        <v>0.04007390611922741</v>
       </c>
       <c r="D7">
-        <v>-0.03332763293805034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05146754131901374</v>
+      </c>
+      <c r="E7">
+        <v>0.01021171677857179</v>
+      </c>
+      <c r="F7">
+        <v>-0.05361154194497315</v>
+      </c>
+      <c r="G7">
+        <v>0.01108188148831434</v>
+      </c>
+      <c r="H7">
+        <v>-0.01939859453485081</v>
+      </c>
+      <c r="I7">
+        <v>-0.03852052794795156</v>
+      </c>
+      <c r="J7">
+        <v>-0.06547410653587438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04134737857896278</v>
+        <v>-0.04235992691436989</v>
       </c>
       <c r="C8">
-        <v>-0.0007950310449764571</v>
+        <v>0.02778619960982</v>
       </c>
       <c r="D8">
-        <v>-0.06245259518183523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01140193797550711</v>
+      </c>
+      <c r="E8">
+        <v>0.0357457903902315</v>
+      </c>
+      <c r="F8">
+        <v>-0.06722014114202268</v>
+      </c>
+      <c r="G8">
+        <v>-0.0506231054443034</v>
+      </c>
+      <c r="H8">
+        <v>0.01919211972088316</v>
+      </c>
+      <c r="I8">
+        <v>-0.1091877646189762</v>
+      </c>
+      <c r="J8">
+        <v>0.03148529159435875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0742118080986405</v>
+        <v>-0.08373376865604831</v>
       </c>
       <c r="C9">
-        <v>0.04142787062928276</v>
+        <v>0.04555880359405452</v>
       </c>
       <c r="D9">
-        <v>-0.07526591989932073</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05716608521251523</v>
+      </c>
+      <c r="E9">
+        <v>0.03083026361093799</v>
+      </c>
+      <c r="F9">
+        <v>-0.04482855871257286</v>
+      </c>
+      <c r="G9">
+        <v>-0.04491117154921471</v>
+      </c>
+      <c r="H9">
+        <v>-0.01883433513333111</v>
+      </c>
+      <c r="I9">
+        <v>-0.06938089365785402</v>
+      </c>
+      <c r="J9">
+        <v>0.04165223934652565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02220222503352524</v>
+        <v>-0.0609564375566996</v>
       </c>
       <c r="C10">
-        <v>0.02876224703746195</v>
+        <v>-0.1964715406175313</v>
       </c>
       <c r="D10">
-        <v>0.1748574854889715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.02623386032300258</v>
+      </c>
+      <c r="E10">
+        <v>0.003180976765208023</v>
+      </c>
+      <c r="F10">
+        <v>-0.05261152453111902</v>
+      </c>
+      <c r="G10">
+        <v>0.03225355468679998</v>
+      </c>
+      <c r="H10">
+        <v>0.04162877218322605</v>
+      </c>
+      <c r="I10">
+        <v>0.06511343684597948</v>
+      </c>
+      <c r="J10">
+        <v>-0.0115266718155177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07071489716111642</v>
+        <v>-0.07524515096121753</v>
       </c>
       <c r="C11">
-        <v>0.03483493210626604</v>
+        <v>0.04613122952089924</v>
       </c>
       <c r="D11">
-        <v>-0.05954551376890401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04511448013095279</v>
+      </c>
+      <c r="E11">
+        <v>0.007621726738357325</v>
+      </c>
+      <c r="F11">
+        <v>-0.04137272537477125</v>
+      </c>
+      <c r="G11">
+        <v>-0.05598206432469265</v>
+      </c>
+      <c r="H11">
+        <v>-0.04873052014744357</v>
+      </c>
+      <c r="I11">
+        <v>-0.06614707831373856</v>
+      </c>
+      <c r="J11">
+        <v>-0.01833530426346731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.06795132165627177</v>
+        <v>-0.07270301400259893</v>
       </c>
       <c r="C12">
-        <v>0.04505061566374331</v>
+        <v>0.03421739700985313</v>
       </c>
       <c r="D12">
-        <v>-0.04657965851942136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04780576970309369</v>
+      </c>
+      <c r="E12">
+        <v>0.01726111857502101</v>
+      </c>
+      <c r="F12">
+        <v>-0.0284815514482859</v>
+      </c>
+      <c r="G12">
+        <v>-0.02950826954017742</v>
+      </c>
+      <c r="H12">
+        <v>-0.01863384815102123</v>
+      </c>
+      <c r="I12">
+        <v>-0.09144939422372704</v>
+      </c>
+      <c r="J12">
+        <v>-0.02579278773733124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.07435530840006017</v>
+        <v>-0.06859803374525861</v>
       </c>
       <c r="C13">
-        <v>0.04811894861588879</v>
+        <v>0.03013391296319279</v>
       </c>
       <c r="D13">
-        <v>-0.05417885635509017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04413247489033576</v>
+      </c>
+      <c r="E13">
+        <v>0.05480008151494319</v>
+      </c>
+      <c r="F13">
+        <v>-0.02327478679365916</v>
+      </c>
+      <c r="G13">
+        <v>-0.01568248271956041</v>
+      </c>
+      <c r="H13">
+        <v>-0.03697711036068112</v>
+      </c>
+      <c r="I13">
+        <v>-0.09462646184234448</v>
+      </c>
+      <c r="J13">
+        <v>-0.05054435633669753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03001160485691496</v>
+        <v>-0.04124702617689658</v>
       </c>
       <c r="C14">
-        <v>0.02747072798980231</v>
+        <v>0.00246803174401339</v>
       </c>
       <c r="D14">
-        <v>-0.005715302614775811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03158155953167553</v>
+      </c>
+      <c r="E14">
+        <v>0.01837835092554687</v>
+      </c>
+      <c r="F14">
+        <v>-0.02044159097016693</v>
+      </c>
+      <c r="G14">
+        <v>-0.03266740862086656</v>
+      </c>
+      <c r="H14">
+        <v>-0.06952946285302516</v>
+      </c>
+      <c r="I14">
+        <v>-0.04726503236787607</v>
+      </c>
+      <c r="J14">
+        <v>0.03050273243879969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.05173827881663105</v>
+        <v>-0.0439705363501709</v>
       </c>
       <c r="C15">
-        <v>0.007345214890114729</v>
+        <v>0.0176769223573854</v>
       </c>
       <c r="D15">
-        <v>-0.02346924530506138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006013701959745868</v>
+      </c>
+      <c r="E15">
+        <v>0.04274879685477592</v>
+      </c>
+      <c r="F15">
+        <v>-0.0005845019832417436</v>
+      </c>
+      <c r="G15">
+        <v>-0.03131548329042131</v>
+      </c>
+      <c r="H15">
+        <v>-0.01959832972389966</v>
+      </c>
+      <c r="I15">
+        <v>-0.02268735268935887</v>
+      </c>
+      <c r="J15">
+        <v>0.01076847626587221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.06244911957133571</v>
+        <v>-0.07408599286392985</v>
       </c>
       <c r="C16">
-        <v>0.036774092938993</v>
+        <v>0.04613208015706251</v>
       </c>
       <c r="D16">
-        <v>-0.06135131242761523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.051563533440487</v>
+      </c>
+      <c r="E16">
+        <v>0.01783241288734297</v>
+      </c>
+      <c r="F16">
+        <v>-0.0337412562373887</v>
+      </c>
+      <c r="G16">
+        <v>-0.03039368645494577</v>
+      </c>
+      <c r="H16">
+        <v>-0.03135106020844667</v>
+      </c>
+      <c r="I16">
+        <v>-0.0413811242754565</v>
+      </c>
+      <c r="J16">
+        <v>-0.01549348611030317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1235,28 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1267,28 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1299,252 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.06552962782155777</v>
+        <v>-0.06320542517150506</v>
       </c>
       <c r="C20">
-        <v>0.02113401853584309</v>
+        <v>0.0372963113152139</v>
       </c>
       <c r="D20">
-        <v>-0.05601909453476352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02586398040138645</v>
+      </c>
+      <c r="E20">
+        <v>0.00587720113711921</v>
+      </c>
+      <c r="F20">
+        <v>-0.02974911440542632</v>
+      </c>
+      <c r="G20">
+        <v>-0.02336021436020865</v>
+      </c>
+      <c r="H20">
+        <v>-0.04413938733218062</v>
+      </c>
+      <c r="I20">
+        <v>-0.09994179208617837</v>
+      </c>
+      <c r="J20">
+        <v>-0.003944508456973408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03471007934297952</v>
+        <v>-0.03060902208105788</v>
       </c>
       <c r="C21">
-        <v>0.007125350964655585</v>
+        <v>0.01708322241909952</v>
       </c>
       <c r="D21">
-        <v>-0.009868187633610626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.00738863160360852</v>
+      </c>
+      <c r="E21">
+        <v>0.03593432514972043</v>
+      </c>
+      <c r="F21">
+        <v>0.004853223061025311</v>
+      </c>
+      <c r="G21">
+        <v>-0.003244899645756608</v>
+      </c>
+      <c r="H21">
+        <v>0.05345982546785748</v>
+      </c>
+      <c r="I21">
+        <v>-0.03140295639469903</v>
+      </c>
+      <c r="J21">
+        <v>-0.006196538038501672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.1040172075738427</v>
+        <v>-0.09118512820926949</v>
       </c>
       <c r="C22">
-        <v>0.03479311283737072</v>
+        <v>0.050071172553067</v>
       </c>
       <c r="D22">
-        <v>-0.09320888445033895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02856353507662833</v>
+      </c>
+      <c r="E22">
+        <v>0.5460364962652158</v>
+      </c>
+      <c r="F22">
+        <v>-0.04367680037783088</v>
+      </c>
+      <c r="G22">
+        <v>0.280242700369358</v>
+      </c>
+      <c r="H22">
+        <v>0.1341253138054374</v>
+      </c>
+      <c r="I22">
+        <v>0.2326151039195984</v>
+      </c>
+      <c r="J22">
+        <v>-0.03070438585260495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.1048013363031055</v>
+        <v>-0.09205992795796639</v>
       </c>
       <c r="C23">
-        <v>0.035735158486076</v>
+        <v>0.05034625008082693</v>
       </c>
       <c r="D23">
-        <v>-0.09329965360327303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02974198603033912</v>
+      </c>
+      <c r="E23">
+        <v>0.549331850901144</v>
+      </c>
+      <c r="F23">
+        <v>-0.04538834235794996</v>
+      </c>
+      <c r="G23">
+        <v>0.2746854399180684</v>
+      </c>
+      <c r="H23">
+        <v>0.1338156406769723</v>
+      </c>
+      <c r="I23">
+        <v>0.2356321715557254</v>
+      </c>
+      <c r="J23">
+        <v>-0.02564247976678922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08075505906691841</v>
+        <v>-0.08396000754250606</v>
       </c>
       <c r="C24">
-        <v>0.04231835546525025</v>
+        <v>0.04377811791702775</v>
       </c>
       <c r="D24">
-        <v>-0.0619469980872932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05014712678042717</v>
+      </c>
+      <c r="E24">
+        <v>0.02302776219910267</v>
+      </c>
+      <c r="F24">
+        <v>-0.04255873027267088</v>
+      </c>
+      <c r="G24">
+        <v>-0.04692501089523123</v>
+      </c>
+      <c r="H24">
+        <v>-0.02029904399822572</v>
+      </c>
+      <c r="I24">
+        <v>-0.06188710715149685</v>
+      </c>
+      <c r="J24">
+        <v>-0.003677626640180525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07682324194241184</v>
+        <v>-0.07780698249485757</v>
       </c>
       <c r="C25">
-        <v>0.04877115214544557</v>
+        <v>0.03627435323141644</v>
       </c>
       <c r="D25">
-        <v>-0.06024373943723162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05391949826241142</v>
+      </c>
+      <c r="E25">
+        <v>0.02824060984820856</v>
+      </c>
+      <c r="F25">
+        <v>-0.03672888764781768</v>
+      </c>
+      <c r="G25">
+        <v>-0.04622745023441451</v>
+      </c>
+      <c r="H25">
+        <v>-0.03035456594977719</v>
+      </c>
+      <c r="I25">
+        <v>-0.07447016990319492</v>
+      </c>
+      <c r="J25">
+        <v>-0.001828265231627038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.04735200858856237</v>
+        <v>-0.04540562510690977</v>
       </c>
       <c r="C26">
-        <v>0.004497931750474333</v>
+        <v>0.01929695364545098</v>
       </c>
       <c r="D26">
-        <v>-0.01235376303110065</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-5.706873649918168e-06</v>
+      </c>
+      <c r="E26">
+        <v>0.03982539527835321</v>
+      </c>
+      <c r="F26">
+        <v>-0.02379435030919794</v>
+      </c>
+      <c r="G26">
+        <v>-0.02331199795092787</v>
+      </c>
+      <c r="H26">
+        <v>-0.0425418016803816</v>
+      </c>
+      <c r="I26">
+        <v>-0.005844575391498788</v>
+      </c>
+      <c r="J26">
+        <v>-0.03185117413808719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1555,316 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.04151545388205987</v>
+        <v>-0.07499984030042851</v>
       </c>
       <c r="C28">
-        <v>0.06707119787732871</v>
+        <v>-0.2937486009786036</v>
       </c>
       <c r="D28">
-        <v>0.2832145795250199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03849200697004355</v>
+      </c>
+      <c r="E28">
+        <v>0.01223049245935494</v>
+      </c>
+      <c r="F28">
+        <v>-0.03383225690786761</v>
+      </c>
+      <c r="G28">
+        <v>-0.03246183321260118</v>
+      </c>
+      <c r="H28">
+        <v>0.03881774634030842</v>
+      </c>
+      <c r="I28">
+        <v>0.0156051591619134</v>
+      </c>
+      <c r="J28">
+        <v>-0.03559287454089427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05295525791375388</v>
+        <v>-0.05464960904865665</v>
       </c>
       <c r="C29">
-        <v>0.04415615624588311</v>
+        <v>-0.0008279250331933871</v>
       </c>
       <c r="D29">
-        <v>0.0003762820295725948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03778058759717546</v>
+      </c>
+      <c r="E29">
+        <v>0.0357339636393452</v>
+      </c>
+      <c r="F29">
+        <v>-0.03261556907356603</v>
+      </c>
+      <c r="G29">
+        <v>-0.01902516671165931</v>
+      </c>
+      <c r="H29">
+        <v>-0.09012828739941564</v>
+      </c>
+      <c r="I29">
+        <v>-0.03936642158491375</v>
+      </c>
+      <c r="J29">
+        <v>-0.001029945646874704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1446196995181859</v>
+        <v>-0.1310377293385661</v>
       </c>
       <c r="C30">
-        <v>0.07231504373186343</v>
+        <v>0.04869307154337345</v>
       </c>
       <c r="D30">
-        <v>-0.09835540857156796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07269454789907467</v>
+      </c>
+      <c r="E30">
+        <v>0.06551050295860229</v>
+      </c>
+      <c r="F30">
+        <v>-0.06384470528197786</v>
+      </c>
+      <c r="G30">
+        <v>-0.05255824366115294</v>
+      </c>
+      <c r="H30">
+        <v>0.05145208711229798</v>
+      </c>
+      <c r="I30">
+        <v>-0.319866219641855</v>
+      </c>
+      <c r="J30">
+        <v>-0.05021512936683736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05352993392293833</v>
+        <v>-0.04757717381377142</v>
       </c>
       <c r="C31">
-        <v>0.02707282449214333</v>
+        <v>0.03119403507860694</v>
       </c>
       <c r="D31">
-        <v>-0.02291938019080135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02645915386714719</v>
+      </c>
+      <c r="E31">
+        <v>0.02332920431738005</v>
+      </c>
+      <c r="F31">
+        <v>-0.007941484515494725</v>
+      </c>
+      <c r="G31">
+        <v>0.0002010672490300044</v>
+      </c>
+      <c r="H31">
+        <v>-0.06568510417195453</v>
+      </c>
+      <c r="I31">
+        <v>-0.02405475744736925</v>
+      </c>
+      <c r="J31">
+        <v>0.01945597613124668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.04341707793807826</v>
+        <v>-0.04619680151720156</v>
       </c>
       <c r="C32">
-        <v>0.008878753929847884</v>
+        <v>-0.0002182563906401461</v>
       </c>
       <c r="D32">
-        <v>-0.02397908874174535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00898801364735582</v>
+      </c>
+      <c r="E32">
+        <v>0.07396305913081988</v>
+      </c>
+      <c r="F32">
+        <v>0.0007173405674793337</v>
+      </c>
+      <c r="G32">
+        <v>-0.02342454551386597</v>
+      </c>
+      <c r="H32">
+        <v>0.02239166672099138</v>
+      </c>
+      <c r="I32">
+        <v>0.03064322745996087</v>
+      </c>
+      <c r="J32">
+        <v>-0.07493075532762293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.09820999182310665</v>
+        <v>-0.1008855616457514</v>
       </c>
       <c r="C33">
-        <v>0.04092066567677242</v>
+        <v>0.03933962931747913</v>
       </c>
       <c r="D33">
-        <v>-0.04311381105226644</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.03870922819660815</v>
+      </c>
+      <c r="E33">
+        <v>0.03319703854297004</v>
+      </c>
+      <c r="F33">
+        <v>-0.007047767404425957</v>
+      </c>
+      <c r="G33">
+        <v>-0.009596943112099606</v>
+      </c>
+      <c r="H33">
+        <v>-0.05299418539724795</v>
+      </c>
+      <c r="I33">
+        <v>-0.0643499220682401</v>
+      </c>
+      <c r="J33">
+        <v>0.014476798698073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06154241807247433</v>
+        <v>-0.06949911230674037</v>
       </c>
       <c r="C34">
-        <v>0.02109614153615337</v>
+        <v>0.03816146481568698</v>
       </c>
       <c r="D34">
-        <v>-0.05547338290246043</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03183169974373391</v>
+      </c>
+      <c r="E34">
+        <v>0.02067502416490372</v>
+      </c>
+      <c r="F34">
+        <v>-0.02695707558319548</v>
+      </c>
+      <c r="G34">
+        <v>-0.0315499973588902</v>
+      </c>
+      <c r="H34">
+        <v>-0.03879119995464027</v>
+      </c>
+      <c r="I34">
+        <v>-0.04622770529703629</v>
+      </c>
+      <c r="J34">
+        <v>0.01065719091181158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.0387910595552737</v>
+        <v>-0.03720653709009028</v>
       </c>
       <c r="C35">
-        <v>0.01397030769367858</v>
+        <v>0.01443200918957969</v>
       </c>
       <c r="D35">
-        <v>-0.01532647307095469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01586524894791153</v>
+      </c>
+      <c r="E35">
+        <v>0.0145099130005772</v>
+      </c>
+      <c r="F35">
+        <v>0.01220260545751465</v>
+      </c>
+      <c r="G35">
+        <v>-0.005081009253675768</v>
+      </c>
+      <c r="H35">
+        <v>-0.03187831199858433</v>
+      </c>
+      <c r="I35">
+        <v>-0.04910518898947053</v>
+      </c>
+      <c r="J35">
+        <v>-0.004951105034780196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03366441831857277</v>
+        <v>-0.03260078991194735</v>
       </c>
       <c r="C36">
-        <v>0.01377682468162711</v>
+        <v>0.01212104005037969</v>
       </c>
       <c r="D36">
-        <v>-0.01909871040446735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01321888229927376</v>
+      </c>
+      <c r="E36">
+        <v>0.0365808155917276</v>
+      </c>
+      <c r="F36">
+        <v>-0.03317328214948317</v>
+      </c>
+      <c r="G36">
+        <v>-0.02099780817448573</v>
+      </c>
+      <c r="H36">
+        <v>-0.03447838052622668</v>
+      </c>
+      <c r="I36">
+        <v>-0.05878186170169532</v>
+      </c>
+      <c r="J36">
+        <v>-0.003886011652604726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1875,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.06881616442895185</v>
+        <v>-0.05805821002566425</v>
       </c>
       <c r="C38">
-        <v>0.003664999491356391</v>
+        <v>0.0250526242672879</v>
       </c>
       <c r="D38">
-        <v>0.00271973107820209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005064527029941199</v>
+      </c>
+      <c r="E38">
+        <v>0.03353314136501798</v>
+      </c>
+      <c r="F38">
+        <v>-0.005938262309711768</v>
+      </c>
+      <c r="G38">
+        <v>0.009424572121638032</v>
+      </c>
+      <c r="H38">
+        <v>-0.03753013456952669</v>
+      </c>
+      <c r="I38">
+        <v>-0.003837965989596108</v>
+      </c>
+      <c r="J38">
+        <v>-0.04339975670891123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.08851960753913771</v>
+        <v>-0.09713773876742623</v>
       </c>
       <c r="C39">
-        <v>0.05232490716435838</v>
+        <v>0.03435328878729097</v>
       </c>
       <c r="D39">
-        <v>-0.0489904442823117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05899712174640222</v>
+      </c>
+      <c r="E39">
+        <v>0.02149854820523856</v>
+      </c>
+      <c r="F39">
+        <v>-0.02592875672612426</v>
+      </c>
+      <c r="G39">
+        <v>-0.03363889850865525</v>
+      </c>
+      <c r="H39">
+        <v>-0.01793155343208199</v>
+      </c>
+      <c r="I39">
+        <v>-0.07804704264333434</v>
+      </c>
+      <c r="J39">
+        <v>-0.1032412048478646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07851260578368734</v>
+        <v>-0.0559293320645646</v>
       </c>
       <c r="C40">
-        <v>0.02109759539104597</v>
+        <v>0.03939876355236498</v>
       </c>
       <c r="D40">
-        <v>-0.02118979565185351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.005561268507435309</v>
+      </c>
+      <c r="E40">
+        <v>0.07078340660677948</v>
+      </c>
+      <c r="F40">
+        <v>0.008120128354728456</v>
+      </c>
+      <c r="G40">
+        <v>-0.04150686690895713</v>
+      </c>
+      <c r="H40">
+        <v>0.0427593747132274</v>
+      </c>
+      <c r="I40">
+        <v>-0.2426579941906905</v>
+      </c>
+      <c r="J40">
+        <v>-0.1745541902249704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05668089900924217</v>
+        <v>-0.04806568217372492</v>
       </c>
       <c r="C41">
-        <v>0.005955983260842134</v>
+        <v>0.03596211697123372</v>
       </c>
       <c r="D41">
-        <v>-0.03064013664121463</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006011391372502489</v>
+      </c>
+      <c r="E41">
+        <v>-0.004536537031310413</v>
+      </c>
+      <c r="F41">
+        <v>0.01170259688023429</v>
+      </c>
+      <c r="G41">
+        <v>-0.0237524743058215</v>
+      </c>
+      <c r="H41">
+        <v>-0.04276488724626455</v>
+      </c>
+      <c r="I41">
+        <v>-0.02811446100693775</v>
+      </c>
+      <c r="J41">
+        <v>-0.04982862146860007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +2035,92 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.05895802888763768</v>
+        <v>-0.06147872234186501</v>
       </c>
       <c r="C43">
-        <v>0.02407108527275464</v>
+        <v>0.02640778091138184</v>
       </c>
       <c r="D43">
-        <v>-0.01219767447375126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02379533468423876</v>
+      </c>
+      <c r="E43">
+        <v>0.01448928058027147</v>
+      </c>
+      <c r="F43">
+        <v>-0.01983050603530412</v>
+      </c>
+      <c r="G43">
+        <v>0.006632405184598968</v>
+      </c>
+      <c r="H43">
+        <v>-0.06160981466703559</v>
+      </c>
+      <c r="I43">
+        <v>-0.003392552067695643</v>
+      </c>
+      <c r="J43">
+        <v>-0.01994546340685164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.09409688450514186</v>
+        <v>-0.09633164859035931</v>
       </c>
       <c r="C44">
-        <v>0.01546417140480186</v>
+        <v>0.04745331776496427</v>
       </c>
       <c r="D44">
-        <v>-0.05273414029528308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02361712248291847</v>
+      </c>
+      <c r="E44">
+        <v>0.08459956530288978</v>
+      </c>
+      <c r="F44">
+        <v>-0.1085104641611702</v>
+      </c>
+      <c r="G44">
+        <v>-0.06611240842504192</v>
+      </c>
+      <c r="H44">
+        <v>-0.04598596824483849</v>
+      </c>
+      <c r="I44">
+        <v>-0.1199166549663421</v>
+      </c>
+      <c r="J44">
+        <v>-0.03096211687900448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +2131,220 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.03031027928174102</v>
+        <v>-0.04393130918960839</v>
       </c>
       <c r="C46">
-        <v>0.02244924513915161</v>
+        <v>0.02381664168002136</v>
       </c>
       <c r="D46">
-        <v>-0.03191039531739535</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03507588751878265</v>
+      </c>
+      <c r="E46">
+        <v>0.0307377175342124</v>
+      </c>
+      <c r="F46">
+        <v>-0.02916452002430779</v>
+      </c>
+      <c r="G46">
+        <v>0.0002393689803668795</v>
+      </c>
+      <c r="H46">
+        <v>-0.02108698531857343</v>
+      </c>
+      <c r="I46">
+        <v>-0.007789942041832931</v>
+      </c>
+      <c r="J46">
+        <v>0.01651852550004508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.03933359930190634</v>
+        <v>-0.04865187315308853</v>
       </c>
       <c r="C47">
-        <v>0.02619670780984309</v>
+        <v>0.001204785549926637</v>
       </c>
       <c r="D47">
-        <v>0.005200536905278712</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02201900156410227</v>
+      </c>
+      <c r="E47">
+        <v>0.04211011001288485</v>
+      </c>
+      <c r="F47">
+        <v>-0.0007672258388949374</v>
+      </c>
+      <c r="G47">
+        <v>0.02011512335818523</v>
+      </c>
+      <c r="H47">
+        <v>-0.02480703950220725</v>
+      </c>
+      <c r="I47">
+        <v>-0.03179109519487103</v>
+      </c>
+      <c r="J47">
+        <v>0.03405696498909805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04396709455179723</v>
+        <v>-0.04290902281466442</v>
       </c>
       <c r="C48">
-        <v>0.02219219454872952</v>
+        <v>0.01479718543286664</v>
       </c>
       <c r="D48">
-        <v>-0.02871958000683024</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01725270633210629</v>
+      </c>
+      <c r="E48">
+        <v>0.05132165378368397</v>
+      </c>
+      <c r="F48">
+        <v>-0.01196952229431079</v>
+      </c>
+      <c r="G48">
+        <v>-0.01133260823436236</v>
+      </c>
+      <c r="H48">
+        <v>-0.01034550180667242</v>
+      </c>
+      <c r="I48">
+        <v>-0.0441751756619395</v>
+      </c>
+      <c r="J48">
+        <v>-0.001259983940703055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.1541027393555694</v>
+        <v>-0.2017064929044038</v>
       </c>
       <c r="C49">
-        <v>0.04747421174871178</v>
+        <v>0.01052058241953346</v>
       </c>
       <c r="D49">
-        <v>-0.02502355070849216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.05099653496078996</v>
+      </c>
+      <c r="E49">
+        <v>-0.2180136113530558</v>
+      </c>
+      <c r="F49">
+        <v>0.01220705181965719</v>
+      </c>
+      <c r="G49">
+        <v>0.1259735050857121</v>
+      </c>
+      <c r="H49">
+        <v>0.2142433111355553</v>
+      </c>
+      <c r="I49">
+        <v>0.0816315563805325</v>
+      </c>
+      <c r="J49">
+        <v>0.0618628846437679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05613805574293112</v>
+        <v>-0.05350801327031375</v>
       </c>
       <c r="C50">
-        <v>0.03588586686093667</v>
+        <v>0.02666186357722272</v>
       </c>
       <c r="D50">
-        <v>-0.03390184204758213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03760551122754981</v>
+      </c>
+      <c r="E50">
+        <v>0.02769521016924477</v>
+      </c>
+      <c r="F50">
+        <v>-0.002804030013564872</v>
+      </c>
+      <c r="G50">
+        <v>-0.01913777516015122</v>
+      </c>
+      <c r="H50">
+        <v>-0.06635658226237261</v>
+      </c>
+      <c r="I50">
+        <v>-0.01867213581662162</v>
+      </c>
+      <c r="J50">
+        <v>0.03477490096373954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.02817156376230682</v>
+        <v>-0.03696336072395713</v>
       </c>
       <c r="C51">
-        <v>-0.006134289572464635</v>
+        <v>-0.004924751849335102</v>
       </c>
       <c r="D51">
-        <v>0.01098864041166477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01384163142388149</v>
+      </c>
+      <c r="E51">
+        <v>-0.01392629935245387</v>
+      </c>
+      <c r="F51">
+        <v>-0.01533256519892438</v>
+      </c>
+      <c r="G51">
+        <v>0.0229712659887108</v>
+      </c>
+      <c r="H51">
+        <v>0.02107966295110837</v>
+      </c>
+      <c r="I51">
+        <v>0.01835819965339747</v>
+      </c>
+      <c r="J51">
+        <v>-0.02709394391747541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2355,156 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1530621395999286</v>
+        <v>-0.1573489926045114</v>
       </c>
       <c r="C53">
-        <v>0.07442617081913104</v>
+        <v>0.003157416575508983</v>
       </c>
       <c r="D53">
-        <v>0.01303380859639611</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0532192976058492</v>
+      </c>
+      <c r="E53">
+        <v>-0.03399419277096206</v>
+      </c>
+      <c r="F53">
+        <v>0.006285703871700593</v>
+      </c>
+      <c r="G53">
+        <v>0.01276424512237693</v>
+      </c>
+      <c r="H53">
+        <v>-0.2079793571143092</v>
+      </c>
+      <c r="I53">
+        <v>0.1030966655873364</v>
+      </c>
+      <c r="J53">
+        <v>0.06600086177636785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.06122680410033167</v>
+        <v>-0.06129792676152392</v>
       </c>
       <c r="C54">
-        <v>0.02144011016801758</v>
+        <v>0.004965898536871667</v>
       </c>
       <c r="D54">
-        <v>-0.02078059373936561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02176211747746286</v>
+      </c>
+      <c r="E54">
+        <v>0.06779111358569707</v>
+      </c>
+      <c r="F54">
+        <v>-0.03467598633104491</v>
+      </c>
+      <c r="G54">
+        <v>-0.05229837010369127</v>
+      </c>
+      <c r="H54">
+        <v>-0.04104755750775834</v>
+      </c>
+      <c r="I54">
+        <v>-0.1183509015892299</v>
+      </c>
+      <c r="J54">
+        <v>0.01180051219854594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09936420639882081</v>
+        <v>-0.1001860239490873</v>
       </c>
       <c r="C55">
-        <v>0.04929748385415816</v>
+        <v>0.01625262474837607</v>
       </c>
       <c r="D55">
-        <v>-0.01103237325356054</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03997072683435682</v>
+      </c>
+      <c r="E55">
+        <v>-0.004996714694520861</v>
+      </c>
+      <c r="F55">
+        <v>-0.01885755566425545</v>
+      </c>
+      <c r="G55">
+        <v>-0.02718597534051567</v>
+      </c>
+      <c r="H55">
+        <v>-0.1593743340888824</v>
+      </c>
+      <c r="I55">
+        <v>0.03236855100853325</v>
+      </c>
+      <c r="J55">
+        <v>0.05585198905988335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.144403574498702</v>
+        <v>-0.1501919009705855</v>
       </c>
       <c r="C56">
-        <v>0.08637067069081181</v>
+        <v>0.01667338501710553</v>
       </c>
       <c r="D56">
-        <v>0.007760903965921173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06790122980538513</v>
+      </c>
+      <c r="E56">
+        <v>-0.01680224032419136</v>
+      </c>
+      <c r="F56">
+        <v>-0.01507903611855236</v>
+      </c>
+      <c r="G56">
+        <v>-0.01433823170018948</v>
+      </c>
+      <c r="H56">
+        <v>-0.2029897747110685</v>
+      </c>
+      <c r="I56">
+        <v>0.1172275148185284</v>
+      </c>
+      <c r="J56">
+        <v>0.01315212043007404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2515,1244 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1265449126268104</v>
+        <v>-0.08944698561604986</v>
       </c>
       <c r="C58">
-        <v>-0.04742109610608704</v>
+        <v>0.05928129489038623</v>
       </c>
       <c r="D58">
-        <v>-0.05066325380465319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06869591820842401</v>
+      </c>
+      <c r="E58">
+        <v>0.1235661725921877</v>
+      </c>
+      <c r="F58">
+        <v>-0.06130552640466511</v>
+      </c>
+      <c r="G58">
+        <v>0.1159354771965748</v>
+      </c>
+      <c r="H58">
+        <v>0.1740058558530544</v>
+      </c>
+      <c r="I58">
+        <v>-0.5413567208500664</v>
+      </c>
+      <c r="J58">
+        <v>0.01588687750318033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1197468342643732</v>
+        <v>-0.1564933607574158</v>
       </c>
       <c r="C59">
-        <v>0.08352044979239293</v>
+        <v>-0.3639186022249649</v>
       </c>
       <c r="D59">
-        <v>0.4382084364289255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07188924751719637</v>
+      </c>
+      <c r="E59">
+        <v>-0.004877225195165997</v>
+      </c>
+      <c r="F59">
+        <v>-0.001992265893246518</v>
+      </c>
+      <c r="G59">
+        <v>-0.01430359842750033</v>
+      </c>
+      <c r="H59">
+        <v>-0.02410981128999159</v>
+      </c>
+      <c r="I59">
+        <v>0.0461557893621579</v>
+      </c>
+      <c r="J59">
+        <v>-0.07396345495288896</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2125602316688096</v>
+        <v>-0.242027877858884</v>
       </c>
       <c r="C60">
-        <v>0.07551016366417014</v>
+        <v>0.02221575223382634</v>
       </c>
       <c r="D60">
-        <v>0.00115322011578424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05984454822273824</v>
+      </c>
+      <c r="E60">
+        <v>-0.1541836068256619</v>
+      </c>
+      <c r="F60">
+        <v>-0.02102130433359711</v>
+      </c>
+      <c r="G60">
+        <v>0.01446089228405476</v>
+      </c>
+      <c r="H60">
+        <v>0.1469999536812504</v>
+      </c>
+      <c r="I60">
+        <v>0.1255222167269843</v>
+      </c>
+      <c r="J60">
+        <v>0.1310185515356339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.07579394821012865</v>
+        <v>-0.08644729907775849</v>
       </c>
       <c r="C61">
-        <v>0.04966336883605064</v>
+        <v>0.0232382110491315</v>
       </c>
       <c r="D61">
-        <v>-0.02848170603906269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05359466937618605</v>
+      </c>
+      <c r="E61">
+        <v>0.01408178765148648</v>
+      </c>
+      <c r="F61">
+        <v>-0.02760313930033052</v>
+      </c>
+      <c r="G61">
+        <v>-0.0417402015348812</v>
+      </c>
+      <c r="H61">
+        <v>-0.06696123468056876</v>
+      </c>
+      <c r="I61">
+        <v>-0.04449107164469295</v>
+      </c>
+      <c r="J61">
+        <v>-0.06316821632448642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1492837067451828</v>
+        <v>-0.1473649203813015</v>
       </c>
       <c r="C62">
-        <v>0.04478585982173513</v>
+        <v>0.02852538968863282</v>
       </c>
       <c r="D62">
-        <v>0.01388142427285404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.02996164468816602</v>
+      </c>
+      <c r="E62">
+        <v>-0.04039685237205788</v>
+      </c>
+      <c r="F62">
+        <v>0.03173083136259407</v>
+      </c>
+      <c r="G62">
+        <v>-0.04359288971992373</v>
+      </c>
+      <c r="H62">
+        <v>-0.1909809167706755</v>
+      </c>
+      <c r="I62">
+        <v>0.1266192973424157</v>
+      </c>
+      <c r="J62">
+        <v>0.06796679438079094</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.05803240195025535</v>
+        <v>-0.05277813341797907</v>
       </c>
       <c r="C63">
-        <v>0.01068383584292006</v>
+        <v>0.01953699547458124</v>
       </c>
       <c r="D63">
-        <v>-0.02770099681596763</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01295487135048604</v>
+      </c>
+      <c r="E63">
+        <v>0.0293891046073438</v>
+      </c>
+      <c r="F63">
+        <v>-0.008683386391608379</v>
+      </c>
+      <c r="G63">
+        <v>-0.04805936674067805</v>
+      </c>
+      <c r="H63">
+        <v>-0.03474385742864333</v>
+      </c>
+      <c r="I63">
+        <v>-0.03588464059048622</v>
+      </c>
+      <c r="J63">
+        <v>0.02122576301479196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09936370328135083</v>
+        <v>-0.1082891133402218</v>
       </c>
       <c r="C64">
-        <v>0.03633221580444718</v>
+        <v>0.009598170934665372</v>
       </c>
       <c r="D64">
-        <v>-0.01324160055345665</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03417582524087552</v>
+      </c>
+      <c r="E64">
+        <v>0.03042564015052747</v>
+      </c>
+      <c r="F64">
+        <v>-0.05809774706487906</v>
+      </c>
+      <c r="G64">
+        <v>-0.04197391508362725</v>
+      </c>
+      <c r="H64">
+        <v>-0.006561306675331882</v>
+      </c>
+      <c r="I64">
+        <v>-0.05830443464468361</v>
+      </c>
+      <c r="J64">
+        <v>-0.02128946091629522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1233230299971601</v>
+        <v>-0.131948103898355</v>
       </c>
       <c r="C65">
-        <v>0.03802626819631158</v>
+        <v>0.001899897243523392</v>
       </c>
       <c r="D65">
-        <v>-0.0299938163266076</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03476375839369409</v>
+      </c>
+      <c r="E65">
+        <v>-0.01516203515255073</v>
+      </c>
+      <c r="F65">
+        <v>-0.01790041133595691</v>
+      </c>
+      <c r="G65">
+        <v>-0.08620156963229132</v>
+      </c>
+      <c r="H65">
+        <v>0.2154374576042652</v>
+      </c>
+      <c r="I65">
+        <v>-0.005444004631938205</v>
+      </c>
+      <c r="J65">
+        <v>0.5967242277196153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1540873532328298</v>
+        <v>-0.1484303651187414</v>
       </c>
       <c r="C66">
-        <v>0.06994348839120354</v>
+        <v>0.07893997379595796</v>
       </c>
       <c r="D66">
-        <v>-0.08355282229190558</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08154620814242174</v>
+      </c>
+      <c r="E66">
+        <v>0.002089865647042959</v>
+      </c>
+      <c r="F66">
+        <v>-0.01979890107534067</v>
+      </c>
+      <c r="G66">
+        <v>-0.07879729586535798</v>
+      </c>
+      <c r="H66">
+        <v>-0.06553585056398233</v>
+      </c>
+      <c r="I66">
+        <v>-0.1278688867410271</v>
+      </c>
+      <c r="J66">
+        <v>-0.1782413627063872</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.09895874410598533</v>
+        <v>-0.1008969789567826</v>
       </c>
       <c r="C67">
-        <v>0.008359329413542834</v>
+        <v>0.03115958679556891</v>
       </c>
       <c r="D67">
-        <v>0.002049480021090623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004266445850337697</v>
+      </c>
+      <c r="E67">
+        <v>-0.0005950949685318435</v>
+      </c>
+      <c r="F67">
+        <v>-0.01428633390705659</v>
+      </c>
+      <c r="G67">
+        <v>0.01942664210997951</v>
+      </c>
+      <c r="H67">
+        <v>-0.02479175405393648</v>
+      </c>
+      <c r="I67">
+        <v>0.02701546005839111</v>
+      </c>
+      <c r="J67">
+        <v>-0.06762075157748107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.04278717698507718</v>
+        <v>-0.07208097793164965</v>
       </c>
       <c r="C68">
-        <v>0.05055935924435444</v>
+        <v>-0.2800992034314512</v>
       </c>
       <c r="D68">
-        <v>0.2554312575842854</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04404494873438115</v>
+      </c>
+      <c r="E68">
+        <v>0.03628338419383317</v>
+      </c>
+      <c r="F68">
+        <v>-0.02018195482572178</v>
+      </c>
+      <c r="G68">
+        <v>0.001580477515441528</v>
+      </c>
+      <c r="H68">
+        <v>-0.01470897367933317</v>
+      </c>
+      <c r="I68">
+        <v>-0.01261008588524725</v>
+      </c>
+      <c r="J68">
+        <v>0.0405812978481693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06794197714250483</v>
+        <v>-0.0583314080866007</v>
       </c>
       <c r="C69">
-        <v>0.0206777812019306</v>
+        <v>0.01596468314441539</v>
       </c>
       <c r="D69">
-        <v>-0.01429382192944952</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009928774751763545</v>
+      </c>
+      <c r="E69">
+        <v>0.02473953695639338</v>
+      </c>
+      <c r="F69">
+        <v>0.01010811502743537</v>
+      </c>
+      <c r="G69">
+        <v>0.0006102082342276831</v>
+      </c>
+      <c r="H69">
+        <v>-0.03665052346447312</v>
+      </c>
+      <c r="I69">
+        <v>-0.007177954442400176</v>
+      </c>
+      <c r="J69">
+        <v>-0.001600943130546608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.009530534325458912</v>
+        <v>-0.03296840808549097</v>
       </c>
       <c r="C70">
-        <v>0.004184667460169986</v>
+        <v>-0.003791054712299224</v>
       </c>
       <c r="D70">
-        <v>0.01040961013550863</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.003016168480754144</v>
+      </c>
+      <c r="E70">
+        <v>-0.02945905592763986</v>
+      </c>
+      <c r="F70">
+        <v>0.006083352457746938</v>
+      </c>
+      <c r="G70">
+        <v>0.008885721756027516</v>
+      </c>
+      <c r="H70">
+        <v>0.02442206880888094</v>
+      </c>
+      <c r="I70">
+        <v>-0.01988772383753106</v>
+      </c>
+      <c r="J70">
+        <v>-0.07813466579625593</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.03805901865120345</v>
+        <v>-0.07747128671414284</v>
       </c>
       <c r="C71">
-        <v>0.04757833282537526</v>
+        <v>-0.3008481948578944</v>
       </c>
       <c r="D71">
-        <v>0.2878683716591796</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0482098334133086</v>
+      </c>
+      <c r="E71">
+        <v>0.02712326292021129</v>
+      </c>
+      <c r="F71">
+        <v>-0.04279411490369818</v>
+      </c>
+      <c r="G71">
+        <v>-0.005690157123110363</v>
+      </c>
+      <c r="H71">
+        <v>-0.017008603859913</v>
+      </c>
+      <c r="I71">
+        <v>-0.01402048902988274</v>
+      </c>
+      <c r="J71">
+        <v>0.01483944397774488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1439859535795751</v>
+        <v>-0.1375895348133284</v>
       </c>
       <c r="C72">
-        <v>0.03691857675754424</v>
+        <v>-0.001760669258054913</v>
       </c>
       <c r="D72">
-        <v>0.03071135125713404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003705653528553533</v>
+      </c>
+      <c r="E72">
+        <v>-0.008755267176980091</v>
+      </c>
+      <c r="F72">
+        <v>0.1740941074226979</v>
+      </c>
+      <c r="G72">
+        <v>-0.1241779295892873</v>
+      </c>
+      <c r="H72">
+        <v>-0.01160560501626104</v>
+      </c>
+      <c r="I72">
+        <v>0.02269047908116929</v>
+      </c>
+      <c r="J72">
+        <v>0.1464884591116647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2681868372763443</v>
+        <v>-0.2633182268163048</v>
       </c>
       <c r="C73">
-        <v>0.06191989583554611</v>
+        <v>0.09271062560253428</v>
       </c>
       <c r="D73">
-        <v>-0.05794126334195757</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04063256103623935</v>
+      </c>
+      <c r="E73">
+        <v>-0.3499443637615741</v>
+      </c>
+      <c r="F73">
+        <v>0.003065314573788092</v>
+      </c>
+      <c r="G73">
+        <v>0.2060441479140101</v>
+      </c>
+      <c r="H73">
+        <v>0.2977067064980919</v>
+      </c>
+      <c r="I73">
+        <v>0.05622269847954911</v>
+      </c>
+      <c r="J73">
+        <v>-0.07752266897301054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.08554104772747355</v>
+        <v>-0.09217156812174614</v>
       </c>
       <c r="C74">
-        <v>0.06962874625306907</v>
+        <v>0.01649187382425818</v>
       </c>
       <c r="D74">
-        <v>-0.004635796574812954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06105583533436029</v>
+      </c>
+      <c r="E74">
+        <v>-0.01017998222719373</v>
+      </c>
+      <c r="F74">
+        <v>0.003481921675974367</v>
+      </c>
+      <c r="G74">
+        <v>0.02931646230728689</v>
+      </c>
+      <c r="H74">
+        <v>-0.1301744927528674</v>
+      </c>
+      <c r="I74">
+        <v>0.02080556250197286</v>
+      </c>
+      <c r="J74">
+        <v>0.0314582601163195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.1156592143916953</v>
+        <v>-0.1060272551388115</v>
       </c>
       <c r="C75">
-        <v>0.03623706756681315</v>
+        <v>0.02315931754027237</v>
       </c>
       <c r="D75">
-        <v>-0.001567337069979728</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01339054292551121</v>
+      </c>
+      <c r="E75">
+        <v>0.005761969493689165</v>
+      </c>
+      <c r="F75">
+        <v>0.003664376541592959</v>
+      </c>
+      <c r="G75">
+        <v>0.008287423971131205</v>
+      </c>
+      <c r="H75">
+        <v>-0.1134826242641664</v>
+      </c>
+      <c r="I75">
+        <v>0.05680862396188991</v>
+      </c>
+      <c r="J75">
+        <v>0.01176492697628153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1327800029989536</v>
+        <v>-0.1325613269788219</v>
       </c>
       <c r="C76">
-        <v>0.07952059543151303</v>
+        <v>0.03565510121387086</v>
       </c>
       <c r="D76">
-        <v>-0.02216370446722456</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0752354745301258</v>
+      </c>
+      <c r="E76">
+        <v>0.0004665775110301806</v>
+      </c>
+      <c r="F76">
+        <v>-0.02661520927336847</v>
+      </c>
+      <c r="G76">
+        <v>-0.02170197490713446</v>
+      </c>
+      <c r="H76">
+        <v>-0.2565695254188909</v>
+      </c>
+      <c r="I76">
+        <v>0.1032202694070223</v>
+      </c>
+      <c r="J76">
+        <v>0.03368018754029702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1249844064525903</v>
+        <v>-0.09496486453205537</v>
       </c>
       <c r="C77">
-        <v>-0.03646570499998087</v>
+        <v>0.05738948090429075</v>
       </c>
       <c r="D77">
-        <v>-0.06951087182658856</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05288585179313284</v>
+      </c>
+      <c r="E77">
+        <v>0.1213347619516169</v>
+      </c>
+      <c r="F77">
+        <v>-0.08376650343832238</v>
+      </c>
+      <c r="G77">
+        <v>-0.7510648759881781</v>
+      </c>
+      <c r="H77">
+        <v>0.3067607589773914</v>
+      </c>
+      <c r="I77">
+        <v>0.2831366443027235</v>
+      </c>
+      <c r="J77">
+        <v>-0.2783586466077639</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.1150366878145922</v>
+        <v>-0.1584794657930841</v>
       </c>
       <c r="C78">
-        <v>0.02966252619050483</v>
+        <v>0.05289364138895151</v>
       </c>
       <c r="D78">
-        <v>-0.07885623826278325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06166623296467669</v>
+      </c>
+      <c r="E78">
+        <v>0.1032754773879191</v>
+      </c>
+      <c r="F78">
+        <v>-0.06907157964497837</v>
+      </c>
+      <c r="G78">
+        <v>0.003430267703827672</v>
+      </c>
+      <c r="H78">
+        <v>0.1602232311346012</v>
+      </c>
+      <c r="I78">
+        <v>-0.02049899631415932</v>
+      </c>
+      <c r="J78">
+        <v>0.1127195047529768</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.148008935944873</v>
+        <v>-0.1461500529747548</v>
       </c>
       <c r="C79">
-        <v>0.05154806219959692</v>
+        <v>0.03325022192923366</v>
       </c>
       <c r="D79">
-        <v>-0.02498699799415392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03762652313056206</v>
+      </c>
+      <c r="E79">
+        <v>-0.01540134883684408</v>
+      </c>
+      <c r="F79">
+        <v>-0.008203842422140851</v>
+      </c>
+      <c r="G79">
+        <v>-0.04257841438123939</v>
+      </c>
+      <c r="H79">
+        <v>-0.1828755489215182</v>
+      </c>
+      <c r="I79">
+        <v>0.09546442468359292</v>
+      </c>
+      <c r="J79">
+        <v>0.05980056139855262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.042224840955196</v>
+        <v>-0.04513831543352802</v>
       </c>
       <c r="C80">
-        <v>0.01512509542543175</v>
+        <v>0.006942774324495734</v>
       </c>
       <c r="D80">
-        <v>-0.01717879176548152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01550588029076289</v>
+      </c>
+      <c r="E80">
+        <v>-0.04364257092807226</v>
+      </c>
+      <c r="F80">
+        <v>-0.005926287833158128</v>
+      </c>
+      <c r="G80">
+        <v>0.003583841006652099</v>
+      </c>
+      <c r="H80">
+        <v>-0.01938355240724601</v>
+      </c>
+      <c r="I80">
+        <v>-0.1156150946062463</v>
+      </c>
+      <c r="J80">
+        <v>0.02859117084719179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1341730425289973</v>
+        <v>-0.1309144427461099</v>
       </c>
       <c r="C81">
-        <v>0.06948074713166463</v>
+        <v>0.01423041563104062</v>
       </c>
       <c r="D81">
-        <v>-0.007591349277494947</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0501633476692558</v>
+      </c>
+      <c r="E81">
+        <v>0.000942407779104537</v>
+      </c>
+      <c r="F81">
+        <v>-0.01885038359948472</v>
+      </c>
+      <c r="G81">
+        <v>-0.007241032569801127</v>
+      </c>
+      <c r="H81">
+        <v>-0.1565850410682079</v>
+      </c>
+      <c r="I81">
+        <v>0.0194302118016016</v>
+      </c>
+      <c r="J81">
+        <v>-0.01277061988243897</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1243738635336901</v>
+        <v>-0.1222325015888641</v>
       </c>
       <c r="C82">
-        <v>0.05131703693699247</v>
+        <v>0.02063332856116811</v>
       </c>
       <c r="D82">
-        <v>-0.01441829328519396</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04101844726555842</v>
+      </c>
+      <c r="E82">
+        <v>-0.01540867133355231</v>
+      </c>
+      <c r="F82">
+        <v>-0.02653439294673868</v>
+      </c>
+      <c r="G82">
+        <v>0.01779827875167579</v>
+      </c>
+      <c r="H82">
+        <v>-0.2572313066047761</v>
+      </c>
+      <c r="I82">
+        <v>0.09201999232778428</v>
+      </c>
+      <c r="J82">
+        <v>-0.02439235880006774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.06147413724636696</v>
+        <v>-0.08004478892553701</v>
       </c>
       <c r="C83">
-        <v>-0.02900540566833056</v>
+        <v>0.0234142855050397</v>
       </c>
       <c r="D83">
-        <v>0.01015894574854002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03057275618143288</v>
+      </c>
+      <c r="E83">
+        <v>-0.005841477228586711</v>
+      </c>
+      <c r="F83">
+        <v>-0.03311318434080744</v>
+      </c>
+      <c r="G83">
+        <v>0.07596540234399279</v>
+      </c>
+      <c r="H83">
+        <v>0.008379803263713768</v>
+      </c>
+      <c r="I83">
+        <v>-0.1170400786486026</v>
+      </c>
+      <c r="J83">
+        <v>-0.07927713375535464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04300081628572679</v>
+        <v>-0.0356515168034691</v>
       </c>
       <c r="C84">
-        <v>0.02559364987072106</v>
+        <v>0.0361513779172358</v>
       </c>
       <c r="D84">
-        <v>-0.03166981431981495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02693212835544687</v>
+      </c>
+      <c r="E84">
+        <v>0.03411075956723056</v>
+      </c>
+      <c r="F84">
+        <v>0.03756266336070921</v>
+      </c>
+      <c r="G84">
+        <v>0.03852903276235942</v>
+      </c>
+      <c r="H84">
+        <v>-0.04178969539514368</v>
+      </c>
+      <c r="I84">
+        <v>-0.09631737103476518</v>
+      </c>
+      <c r="J84">
+        <v>-0.01204284297676003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1149030849819767</v>
+        <v>-0.1215533268582604</v>
       </c>
       <c r="C85">
-        <v>0.02731687458637485</v>
+        <v>0.03179983075957794</v>
       </c>
       <c r="D85">
-        <v>-0.03297259402101091</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02448964725341821</v>
+      </c>
+      <c r="E85">
+        <v>-0.002396949123750641</v>
+      </c>
+      <c r="F85">
+        <v>-0.04149178106930655</v>
+      </c>
+      <c r="G85">
+        <v>-0.01858453487402163</v>
+      </c>
+      <c r="H85">
+        <v>-0.1664838052159563</v>
+      </c>
+      <c r="I85">
+        <v>0.0797077427847194</v>
+      </c>
+      <c r="J85">
+        <v>0.07293566829487312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06556456773771079</v>
+        <v>-0.06074651611521602</v>
       </c>
       <c r="C86">
-        <v>0.01392102743943292</v>
+        <v>0.03226481119782727</v>
       </c>
       <c r="D86">
-        <v>-0.06567425276711064</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01397535056867513</v>
+      </c>
+      <c r="E86">
+        <v>0.02621868931732054</v>
+      </c>
+      <c r="F86">
+        <v>-0.02356585571817355</v>
+      </c>
+      <c r="G86">
+        <v>0.0009685015589973511</v>
+      </c>
+      <c r="H86">
+        <v>0.06891544151776015</v>
+      </c>
+      <c r="I86">
+        <v>0.05274481353529218</v>
+      </c>
+      <c r="J86">
+        <v>0.02874746843335749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1243896784939156</v>
+        <v>-0.1282298027226777</v>
       </c>
       <c r="C87">
-        <v>0.06729493417033154</v>
+        <v>0.06359297849214228</v>
       </c>
       <c r="D87">
-        <v>-0.09234543179853764</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06970062196111135</v>
+      </c>
+      <c r="E87">
+        <v>0.05621015501825536</v>
+      </c>
+      <c r="F87">
+        <v>-0.0311900191591489</v>
+      </c>
+      <c r="G87">
+        <v>-0.1663179400251703</v>
+      </c>
+      <c r="H87">
+        <v>0.09782715172930589</v>
+      </c>
+      <c r="I87">
+        <v>0.002442940176700625</v>
+      </c>
+      <c r="J87">
+        <v>0.001187211442368083</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.05839740739335313</v>
+        <v>-0.06386021959280209</v>
       </c>
       <c r="C88">
-        <v>0.0293530723808208</v>
+        <v>0.03297567793538612</v>
       </c>
       <c r="D88">
-        <v>-0.02723832593961896</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0360558538333265</v>
+      </c>
+      <c r="E88">
+        <v>-0.005450949718468266</v>
+      </c>
+      <c r="F88">
+        <v>-0.02108295628258439</v>
+      </c>
+      <c r="G88">
+        <v>-0.01659584526884289</v>
+      </c>
+      <c r="H88">
+        <v>-0.04458970368272439</v>
+      </c>
+      <c r="I88">
+        <v>-0.03395796512468118</v>
+      </c>
+      <c r="J88">
+        <v>-0.02542835255082168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.06883815906246257</v>
+        <v>-0.1255899808668003</v>
       </c>
       <c r="C89">
-        <v>0.08309826034852977</v>
+        <v>-0.3782100796909937</v>
       </c>
       <c r="D89">
-        <v>0.3176053324653045</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03818803189458715</v>
+      </c>
+      <c r="E89">
+        <v>0.03209992373684044</v>
+      </c>
+      <c r="F89">
+        <v>-0.08721131768328387</v>
+      </c>
+      <c r="G89">
+        <v>0.01869917977643894</v>
+      </c>
+      <c r="H89">
+        <v>-0.005521986270036629</v>
+      </c>
+      <c r="I89">
+        <v>-0.07981596104454686</v>
+      </c>
+      <c r="J89">
+        <v>-0.05244928871785093</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.06173895347656193</v>
+        <v>-0.0917246081540148</v>
       </c>
       <c r="C90">
-        <v>0.04526406566208328</v>
+        <v>-0.2814656252903984</v>
       </c>
       <c r="D90">
-        <v>0.2856737149860581</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0547104706497443</v>
+      </c>
+      <c r="E90">
+        <v>0.02640718951379013</v>
+      </c>
+      <c r="F90">
+        <v>-0.03781825337298601</v>
+      </c>
+      <c r="G90">
+        <v>-0.01657430955273577</v>
+      </c>
+      <c r="H90">
+        <v>0.01872612586134331</v>
+      </c>
+      <c r="I90">
+        <v>-0.09699240072282006</v>
+      </c>
+      <c r="J90">
+        <v>-0.0272109950319442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.1010262484930403</v>
+        <v>-0.09250679669063891</v>
       </c>
       <c r="C91">
-        <v>0.04414731456720345</v>
+        <v>0.02320390325168036</v>
       </c>
       <c r="D91">
-        <v>-0.003941624780242806</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02631890287202606</v>
+      </c>
+      <c r="E91">
+        <v>0.001579430247934532</v>
+      </c>
+      <c r="F91">
+        <v>-0.002766082474036434</v>
+      </c>
+      <c r="G91">
+        <v>0.01602037201523843</v>
+      </c>
+      <c r="H91">
+        <v>-0.07914602516692384</v>
+      </c>
+      <c r="I91">
+        <v>0.04152618445586977</v>
+      </c>
+      <c r="J91">
+        <v>-0.00602968584228598</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.05399046092530858</v>
+        <v>-0.09258817618974685</v>
       </c>
       <c r="C92">
-        <v>0.06618150194094007</v>
+        <v>-0.3329551878859321</v>
       </c>
       <c r="D92">
-        <v>0.3276221505554104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.05020779718264416</v>
+      </c>
+      <c r="E92">
+        <v>0.03028666709610823</v>
+      </c>
+      <c r="F92">
+        <v>-0.04460500961397885</v>
+      </c>
+      <c r="G92">
+        <v>-0.002187723723011175</v>
+      </c>
+      <c r="H92">
+        <v>-0.015140561635069</v>
+      </c>
+      <c r="I92">
+        <v>-0.0269478134031385</v>
+      </c>
+      <c r="J92">
+        <v>-0.01319436273411078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04480295233669458</v>
+        <v>-0.08926296192672378</v>
       </c>
       <c r="C93">
-        <v>0.06130778537437124</v>
+        <v>-0.3186005132597924</v>
       </c>
       <c r="D93">
-        <v>0.3056148079885314</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.04309315561606725</v>
+      </c>
+      <c r="E93">
+        <v>0.002549148875452955</v>
+      </c>
+      <c r="F93">
+        <v>-0.02986508567858339</v>
+      </c>
+      <c r="G93">
+        <v>-0.005660869489374306</v>
+      </c>
+      <c r="H93">
+        <v>0.007856312187932818</v>
+      </c>
+      <c r="I93">
+        <v>-0.01585279421599285</v>
+      </c>
+      <c r="J93">
+        <v>0.00354653344764234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.129014794000767</v>
+        <v>-0.1269156297146755</v>
       </c>
       <c r="C94">
-        <v>0.0197056535955774</v>
+        <v>0.04677828223096994</v>
       </c>
       <c r="D94">
-        <v>-0.04942189652453958</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01379594433318763</v>
+      </c>
+      <c r="E94">
+        <v>0.01028057336908756</v>
+      </c>
+      <c r="F94">
+        <v>-0.02426300477843071</v>
+      </c>
+      <c r="G94">
+        <v>0.05606383159472664</v>
+      </c>
+      <c r="H94">
+        <v>-0.1037664309237708</v>
+      </c>
+      <c r="I94">
+        <v>0.04830897368205379</v>
+      </c>
+      <c r="J94">
+        <v>0.02620818507003986</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1245738442447805</v>
+        <v>-0.1365462025040705</v>
       </c>
       <c r="C95">
-        <v>0.01508982386017866</v>
+        <v>0.0586667843345096</v>
       </c>
       <c r="D95">
-        <v>-0.07690216782115301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01765393427461394</v>
+      </c>
+      <c r="E95">
+        <v>0.01421190266310871</v>
+      </c>
+      <c r="F95">
+        <v>-0.05194071018155131</v>
+      </c>
+      <c r="G95">
+        <v>-0.03371107305176679</v>
+      </c>
+      <c r="H95">
+        <v>0.1299050564604554</v>
+      </c>
+      <c r="I95">
+        <v>-0.05305136290530811</v>
+      </c>
+      <c r="J95">
+        <v>-0.003856561502191037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3763,124 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.238120052560427</v>
+        <v>-0.1824713557017499</v>
       </c>
       <c r="C97">
-        <v>0.0526924490489956</v>
+        <v>-0.03200441932479942</v>
       </c>
       <c r="D97">
-        <v>0.120593157437654</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05735757188316987</v>
+      </c>
+      <c r="E97">
+        <v>0.144400931904907</v>
+      </c>
+      <c r="F97">
+        <v>0.9241832466363979</v>
+      </c>
+      <c r="G97">
+        <v>-0.07297465190349073</v>
+      </c>
+      <c r="H97">
+        <v>0.01389164436903546</v>
+      </c>
+      <c r="I97">
+        <v>-0.09377478970678078</v>
+      </c>
+      <c r="J97">
+        <v>-0.01301492927980354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2634854751754049</v>
+        <v>-0.279702500020949</v>
       </c>
       <c r="C98">
-        <v>0.05403955622862821</v>
+        <v>0.06012915188421666</v>
       </c>
       <c r="D98">
-        <v>-0.02219565485254333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.03566253157524624</v>
+      </c>
+      <c r="E98">
+        <v>-0.264892397185577</v>
+      </c>
+      <c r="F98">
+        <v>0.04985538372745865</v>
+      </c>
+      <c r="G98">
+        <v>0.284039685274714</v>
+      </c>
+      <c r="H98">
+        <v>0.1802596760577239</v>
+      </c>
+      <c r="I98">
+        <v>0.1417648499848143</v>
+      </c>
+      <c r="J98">
+        <v>-0.416346627553333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.3386464555709336</v>
+        <v>-0.2073259382081304</v>
       </c>
       <c r="C99">
-        <v>-0.9144248352729113</v>
+        <v>0.2173314164316057</v>
       </c>
       <c r="D99">
-        <v>0.1036006567667692</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.9255851234563104</v>
+      </c>
+      <c r="E99">
+        <v>-0.002371726656844903</v>
+      </c>
+      <c r="F99">
+        <v>-0.09431928344493459</v>
+      </c>
+      <c r="G99">
+        <v>0.01908983372392675</v>
+      </c>
+      <c r="H99">
+        <v>-0.0992898888727391</v>
+      </c>
+      <c r="I99">
+        <v>0.006081355531817464</v>
+      </c>
+      <c r="J99">
+        <v>0.0491026917152944</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3891,60 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05306790811341389</v>
+        <v>-0.05474919376157143</v>
       </c>
       <c r="C101">
-        <v>0.0444951314245057</v>
+        <v>-0.0006199177252975291</v>
       </c>
       <c r="D101">
-        <v>0.0001523893583911023</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03826132930875929</v>
+      </c>
+      <c r="E101">
+        <v>0.03535979526971188</v>
+      </c>
+      <c r="F101">
+        <v>-0.03259771534614331</v>
+      </c>
+      <c r="G101">
+        <v>-0.01774047716701336</v>
+      </c>
+      <c r="H101">
+        <v>-0.08887135512290044</v>
+      </c>
+      <c r="I101">
+        <v>-0.03967317003923489</v>
+      </c>
+      <c r="J101">
+        <v>-0.002180374288001217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3955,28 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3987,28 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +4017,24 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
